--- a/TableConverter/Character.xlsx
+++ b/TableConverter/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="37755" windowHeight="17970" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="37755" windowHeight="17970"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>*root</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,10 @@
   </si>
   <si>
     <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isMonster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,49 +554,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -771,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
